--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2252943.366544589</v>
+        <v>2366219.578207367</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>612367.9462114759</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5796519.516095598</v>
+        <v>6198692.795531093</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>65.04649299074131</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>92.90728180018343</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -817,10 +819,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>98.2633455906813</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.28391178232889</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>333.4191839581966</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>49.49512077555165</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>80.28123107067827</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>46.1619143009821</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>298.316082438788</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>110.8471439350443</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1339,10 +1341,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>149.1427835161698</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068499</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.54790254396354</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.90184162074424</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439303</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1543,7 +1545,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>180.0750960050902</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1591,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.8277938782441</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868328</v>
       </c>
       <c r="D14" t="n">
-        <v>167.3241196399374</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.54790254396354</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
         <v>353.9145207250131</v>
@@ -1774,13 +1776,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1825,10 +1827,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>66.81647466755462</v>
+        <v>60.64582998875448</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1850,19 +1852,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095526</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>51.69511841098215</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2056,7 +2058,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>262.5545855091919</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396344</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,13 +2140,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250141</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>69.70658994605395</v>
       </c>
       <c r="C22" t="n">
-        <v>17.72063072063652</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2302,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>165.5938898061686</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2494,7 +2496,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>57.96819645749144</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2539,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>75.30362264056416</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>69.59938463938025</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2950,22 +2952,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>129.887493264285</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>43.57932574775487</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3281,7 +3283,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>121.8235736002274</v>
+        <v>146.7855775533106</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3673,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>1.44894733164843</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>227.4481520276159</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>319.5233389027802</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>123.9614865446926</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3955,16 +3957,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>49.68625292119583</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>121.4981675539506</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3986,13 +3988,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4037,10 +4039,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4135,19 +4137,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>6.464056402160333</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4183,13 +4185,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>59.93143566197608</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.988227140365</v>
+        <v>168.7534004685707</v>
       </c>
       <c r="C2" t="n">
-        <v>1354.087497153665</v>
+        <v>145.8930745222749</v>
       </c>
       <c r="D2" t="n">
-        <v>930.7948763386659</v>
+        <v>126.6408577476792</v>
       </c>
       <c r="E2" t="n">
-        <v>504.8179364865234</v>
+        <v>104.7043219359408</v>
       </c>
       <c r="F2" t="n">
-        <v>79.69375467592363</v>
+        <v>39.00079366246477</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>880.2445183516415</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505812</v>
+        <v>880.2445183516415</v>
       </c>
       <c r="M2" t="n">
-        <v>957.7672188505812</v>
+        <v>882.5260259873587</v>
       </c>
       <c r="N2" t="n">
-        <v>957.7672188505812</v>
+        <v>882.5260259873587</v>
       </c>
       <c r="O2" t="n">
-        <v>1508.432753835019</v>
+        <v>1361.464950229787</v>
       </c>
       <c r="P2" t="n">
-        <v>2059.098288819458</v>
+        <v>1361.464950229787</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>1817.55042973397</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>1830.739470489013</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>1609.813899533646</v>
       </c>
       <c r="U2" t="n">
-        <v>1899.61838738015</v>
+        <v>1351.458990130059</v>
       </c>
       <c r="V2" t="n">
-        <v>1805.772648188046</v>
+        <v>993.9695752563082</v>
       </c>
       <c r="W2" t="n">
-        <v>1805.772648188046</v>
+        <v>597.5782255566551</v>
       </c>
       <c r="X2" t="n">
-        <v>1798.093053396197</v>
+        <v>185.8582267244023</v>
       </c>
       <c r="Y2" t="n">
-        <v>1796.796187391491</v>
+        <v>184.5613607196967</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>92.07822853000786</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>46.1487782542293</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>756.3555336978366</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>1307.021068682275</v>
+        <v>796.7851917762489</v>
       </c>
       <c r="M3" t="n">
-        <v>1307.021068682275</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="N3" t="n">
-        <v>1307.021068682275</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="O3" t="n">
-        <v>1307.021068682275</v>
+        <v>1754.663040261106</v>
       </c>
       <c r="P3" t="n">
-        <v>1307.021068682275</v>
+        <v>1754.663040261106</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315.6159039117389</v>
+        <v>955.6750519694078</v>
       </c>
       <c r="C4" t="n">
-        <v>315.6159039117389</v>
+        <v>783.7024888483238</v>
       </c>
       <c r="D4" t="n">
-        <v>216.3599992746871</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="E4" t="n">
-        <v>216.3599992746871</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924753</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924753</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>38.70213529231746</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>38.7126666327394</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>393.4019879271602</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>784.587782897411</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1162.079293773447</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1517.50742245321</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1808.106634375111</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615873</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>1890.375540593318</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>1890.375540593318</v>
       </c>
       <c r="T4" t="n">
-        <v>1811.436857207411</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="U4" t="n">
-        <v>1531.252408707716</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="V4" t="n">
-        <v>1249.540941315744</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="W4" t="n">
-        <v>974.6885374882575</v>
+        <v>1372.183788991731</v>
       </c>
       <c r="X4" t="n">
-        <v>732.1246409340625</v>
+        <v>1372.183788991731</v>
       </c>
       <c r="Y4" t="n">
-        <v>505.7818726238046</v>
+        <v>1145.841020681474</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1746.091355883837</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C5" t="n">
-        <v>1319.190625897137</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>895.898005082137</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
         <v>469.9210652299946</v>
@@ -4571,19 +4573,19 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>957.7672188505812</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091853</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4592,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.91618097192</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.91618097192</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.91618097192</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X5" t="n">
-        <v>2167.236586180072</v>
+        <v>1276.094468310963</v>
       </c>
       <c r="Y5" t="n">
-        <v>2165.939720175366</v>
+        <v>1274.797602306257</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>874.3078922751886</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L6" t="n">
-        <v>874.3078922751886</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>874.3078922751886</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>870.6527562389217</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="C7" t="n">
-        <v>698.6801931178377</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D7" t="n">
-        <v>535.3634202446084</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E7" t="n">
-        <v>369.1552143974619</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F7" t="n">
-        <v>369.1552143974619</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
         <v>288.0630618008172</v>
@@ -4741,34 +4743,34 @@
         <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1811.436857207411</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1811.436857207411</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.72538981544</v>
+        <v>1717.770047630966</v>
       </c>
       <c r="W7" t="n">
-        <v>1529.72538981544</v>
+        <v>1442.917643803479</v>
       </c>
       <c r="X7" t="n">
-        <v>1287.161493261245</v>
+        <v>1200.353747249284</v>
       </c>
       <c r="Y7" t="n">
-        <v>1060.818724950987</v>
+        <v>974.0109789390265</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>816.0473031888248</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C8" t="n">
-        <v>389.1465732021249</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
         <v>65.88066118959054</v>
@@ -4808,46 +4810,46 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1100.603903091853</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1100.603903091853</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1100.603903091853</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1641.263477976562</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="V8" t="n">
-        <v>1641.263477976562</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="W8" t="n">
-        <v>1244.872128276909</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X8" t="n">
-        <v>1237.19253348506</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y8" t="n">
-        <v>1235.895667480355</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>602.6104029955975</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>602.6104029955975</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>669.8354755761777</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>669.8354755761777</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>288.0630618008172</v>
+        <v>738.2594066832694</v>
       </c>
       <c r="C10" t="n">
-        <v>288.0630618008172</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="D10" t="n">
-        <v>288.0630618008172</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="E10" t="n">
-        <v>288.0630618008172</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="F10" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
         <v>288.0630618008172</v>
@@ -4987,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2027.223362870589</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1783.88401509649</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1503.699566596794</v>
+        <v>1727.553143168988</v>
       </c>
       <c r="V10" t="n">
-        <v>1221.988099204823</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W10" t="n">
-        <v>947.1356953773358</v>
+        <v>1170.98927194953</v>
       </c>
       <c r="X10" t="n">
-        <v>704.5717988231409</v>
+        <v>928.425375395335</v>
       </c>
       <c r="Y10" t="n">
-        <v>478.2290305128828</v>
+        <v>928.425375395335</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2063.845001487199</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.944271500499</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1213.6516506855</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>787.6747108333573</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>362.5505290227574</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G11" t="n">
-        <v>362.5505290227574</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136877</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>427.2856093136877</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>427.2856093136877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>427.2856093136877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>1227.727221711491</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O11" t="n">
-        <v>1952.186431295595</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P11" t="n">
-        <v>2660.465710453522</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3139.257179768149</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3139.257179768149</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>2880.902270364561</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2880.902270364561</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2880.902270364561</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2469.182271532309</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2063.845001487199</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679216</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>64.68215049679216</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M12" t="n">
-        <v>64.68215049679216</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N12" t="n">
-        <v>64.68215049679216</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="O12" t="n">
-        <v>865.1237628945952</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="P12" t="n">
-        <v>1581.321479933093</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.863273021029</v>
+        <v>878.3707945649905</v>
       </c>
       <c r="C13" t="n">
-        <v>975.890709899945</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D13" t="n">
-        <v>812.5739370267157</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E13" t="n">
-        <v>646.3657311795693</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541297</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302424</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100493</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976529</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656292</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578193</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818955</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.677127506128</v>
       </c>
       <c r="S13" t="n">
-        <v>2074.960130429055</v>
+        <v>2065.542080025263</v>
       </c>
       <c r="T13" t="n">
-        <v>1893.066094060277</v>
+        <v>1822.202732251163</v>
       </c>
       <c r="U13" t="n">
-        <v>1612.881645560582</v>
+        <v>1542.018283751467</v>
       </c>
       <c r="V13" t="n">
-        <v>1612.881645560582</v>
+        <v>1542.018283751467</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.029241733095</v>
+        <v>1267.16587992398</v>
       </c>
       <c r="X13" t="n">
-        <v>1338.029241733095</v>
+        <v>1104.713562875248</v>
       </c>
       <c r="Y13" t="n">
-        <v>1338.029241733095</v>
+        <v>878.3707945649905</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>659.6733526114976</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>659.6733526114976</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>490.6590903489346</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>64.68215049679216</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>64.68215049679216</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679216</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136877</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1142.793917289187</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1943.23552968699</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M14" t="n">
-        <v>1943.23552968699</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N14" t="n">
-        <v>1943.23552968699</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>2525.828245681681</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>3234.107524839608</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712749</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>2908.814659757382</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>2650.459750353794</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2292.970335480044</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>1896.57898578039</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>1484.858986948137</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1079.521716903028</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>336.3796397763832</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>336.3796397763832</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>336.3796397763832</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M15" t="n">
-        <v>336.3796397763832</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N15" t="n">
-        <v>1072.928168679499</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O15" t="n">
-        <v>1873.369781077302</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>975.890709899945</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="C16" t="n">
-        <v>975.890709899945</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="D16" t="n">
-        <v>812.5739370267157</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E16" t="n">
-        <v>646.3657311795693</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541297</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578193</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818955</v>
       </c>
       <c r="R16" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.677127506128</v>
       </c>
       <c r="S16" t="n">
-        <v>2074.960130429055</v>
+        <v>2065.542080025263</v>
       </c>
       <c r="T16" t="n">
-        <v>1831.620782654955</v>
+        <v>1822.202732251163</v>
       </c>
       <c r="U16" t="n">
-        <v>1551.43633415526</v>
+        <v>1542.018283751467</v>
       </c>
       <c r="V16" t="n">
-        <v>1269.724866763288</v>
+        <v>1260.306816359496</v>
       </c>
       <c r="W16" t="n">
-        <v>1269.724866763288</v>
+        <v>985.4544125320092</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.233478210203</v>
+        <v>924.1959984019542</v>
       </c>
       <c r="Y16" t="n">
-        <v>975.890709899945</v>
+        <v>697.8532300916962</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5497,43 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5549,10 +5551,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
@@ -5595,13 +5597,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>692.7876399741681</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M18" t="n">
-        <v>1748.774177950213</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>578.5641574505885</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C19" t="n">
-        <v>578.5641574505885</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D19" t="n">
-        <v>578.5641574505885</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="E19" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5686,37 +5688,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656289</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.71561057819</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818951</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818951</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338086</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563986</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1604.034693534499</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1322.323226142528</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1047.470822315041</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>804.9069257608464</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>578.5641574505885</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5743,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5756,22 +5758,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M20" t="n">
-        <v>2837.654482149731</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N20" t="n">
-        <v>3813.905540636432</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O20" t="n">
-        <v>4659.050190787244</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,13 +5788,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5838,19 +5840,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>615.9842888225141</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>598.0846618319722</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>434.7678889587429</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1032.493025844838</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>806.1502575345799</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5992,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6066,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.1502575345799</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C25" t="n">
-        <v>634.1776944134958</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D25" t="n">
-        <v>470.8609215402665</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E25" t="n">
-        <v>304.6527156931201</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F25" t="n">
-        <v>304.6527156931201</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G25" t="n">
-        <v>304.6527156931201</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
-        <v>160.8564472012744</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1032.493025844838</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>806.1502575345799</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6300,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3924.889401255953</v>
+        <v>440.483482374059</v>
       </c>
       <c r="C28" t="n">
-        <v>3752.916838134869</v>
+        <v>268.510919252975</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408222</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561076</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>4897.962009497735</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>4897.962009497735</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>4616.250542105764</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>4341.398138278277</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>4341.398138278277</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>4115.055369968019</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K29" t="n">
-        <v>195.4640539534684</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L29" t="n">
-        <v>1125.089101572745</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M29" t="n">
-        <v>2129.375202991803</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.5554397491844</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>412.355951603442</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>412.355951603442</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.628073325703</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>960.064176771508</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.72140846125</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N32" t="n">
-        <v>3950.770911629316</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,19 +6788,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.72140846125</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C34" t="n">
-        <v>561.748845340166</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D34" t="n">
-        <v>517.7293243828378</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>517.7293243828378</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.628073325703</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>960.064176771508</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>733.72140846125</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6935,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576516</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076928</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6971,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1015214887346</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N36" t="n">
-        <v>939.1015214887346</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O36" t="n">
-        <v>1194.79262694784</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>440.5322462326804</v>
+        <v>368.279487512699</v>
       </c>
       <c r="C37" t="n">
-        <v>268.5596831115964</v>
+        <v>368.279487512699</v>
       </c>
       <c r="D37" t="n">
-        <v>268.5596831115964</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E37" t="n">
-        <v>268.5596831115964</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,37 +7162,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
         <v>4997.579335409525</v>
@@ -7199,10 +7201,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7260,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>847.2543031032136</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="C40" t="n">
-        <v>847.2543031032136</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="D40" t="n">
-        <v>683.9375302299843</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="E40" t="n">
-        <v>517.7293243828378</v>
+        <v>441.8850405003172</v>
       </c>
       <c r="F40" t="n">
-        <v>345.8675501573982</v>
+        <v>270.0232662748776</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>103.7662965691098</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7366,16 +7368,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1312.272675642766</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W40" t="n">
-        <v>1037.420271815279</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X40" t="n">
-        <v>1037.420271815279</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y40" t="n">
-        <v>1037.420271815279</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2079.78831433928</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1652.88758435258</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.88758435258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1226.910644500437</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>801.7864626898374</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>427.2856093136877</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>832.7826876461991</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1633.224300044002</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M41" t="n">
-        <v>2433.665912441805</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>3234.107524839608</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839608</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839608</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839608</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839608</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839608</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3234.107524839608</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2911.356677463063</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2499.63667863081</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2499.63667863081</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679216</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>336.3796397763832</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>336.3796397763832</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L42" t="n">
-        <v>336.3796397763832</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M42" t="n">
-        <v>336.3796397763832</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N42" t="n">
-        <v>1072.928168679499</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.4640989229358</v>
+        <v>3666.855944130192</v>
       </c>
       <c r="C43" t="n">
-        <v>560.4640989229358</v>
+        <v>3494.883381009108</v>
       </c>
       <c r="D43" t="n">
-        <v>397.1473260497065</v>
+        <v>3331.566608135879</v>
       </c>
       <c r="E43" t="n">
-        <v>230.93912020256</v>
+        <v>3331.566608135879</v>
       </c>
       <c r="F43" t="n">
-        <v>230.93912020256</v>
+        <v>3159.704833910439</v>
       </c>
       <c r="G43" t="n">
-        <v>64.68215049679216</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679216</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679216</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267874</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S43" t="n">
-        <v>2074.960130429055</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T43" t="n">
-        <v>1831.620782654955</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U43" t="n">
-        <v>1551.43633415526</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V43" t="n">
-        <v>1269.724866763288</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="W43" t="n">
-        <v>1219.536732499454</v>
+        <v>4099.585809396453</v>
       </c>
       <c r="X43" t="n">
-        <v>976.9728359452595</v>
+        <v>3857.021912842258</v>
       </c>
       <c r="Y43" t="n">
-        <v>750.6300676350015</v>
+        <v>3857.021912842258</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1475.913066602682</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1353.187644831014</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>929.8950240160148</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>503.9180841638723</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>503.9180841638723</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>99.57902175332094</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>427.2856093136877</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>427.2856093136877</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1227.727221711491</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M44" t="n">
-        <v>2028.168834109294</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N44" t="n">
-        <v>2660.465710453522</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O44" t="n">
-        <v>2660.465710453522</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P44" t="n">
-        <v>2660.465710453522</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712749</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>2908.814659757382</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>2650.459750353794</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2292.970335480044</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2292.970335480044</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>1881.250336647791</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1475.913066602682</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679216</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679216</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679216</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679216</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L45" t="n">
-        <v>64.68215049679216</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M45" t="n">
-        <v>865.1237628945952</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="N45" t="n">
-        <v>865.1237628945952</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="O45" t="n">
-        <v>1157.172064038804</v>
+        <v>4195.92931772239</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>4650.990193428648</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>982.4200598011171</v>
+        <v>3341.604252503098</v>
       </c>
       <c r="C46" t="n">
-        <v>975.890709899945</v>
+        <v>3341.604252503098</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267157</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795693</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541297</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679216</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267874</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S46" t="n">
-        <v>2198.056564597094</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T46" t="n">
-        <v>2198.056564597094</v>
+        <v>4837.42520579877</v>
       </c>
       <c r="U46" t="n">
-        <v>2198.056564597094</v>
+        <v>4557.240757299074</v>
       </c>
       <c r="V46" t="n">
-        <v>1916.345097205123</v>
+        <v>4275.529289907103</v>
       </c>
       <c r="W46" t="n">
-        <v>1641.492693377636</v>
+        <v>4000.676886079616</v>
       </c>
       <c r="X46" t="n">
-        <v>1398.928796823441</v>
+        <v>3758.112989525421</v>
       </c>
       <c r="Y46" t="n">
-        <v>1172.586028513183</v>
+        <v>3531.770221215163</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>519.5412919487776</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>39.73581606682288</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>521.1676505099923</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.6125166681525</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>467.0051119838363</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>506.2917778681978</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662962</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>506.9485808761904</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>33.56260952839055</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8134,16 +8136,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217030992</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281034</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8219,22 +8221,22 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>181.6704383876113</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8292,28 +8294,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>177.6973456537768</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>371.0330466836703</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8389,10 +8391,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8456,7 +8458,7 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>182.5915214642101</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8468,13 +8470,13 @@
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>91.00089423008578</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>98.17301358442491</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8690,19 +8692,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443481</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>769.1679387339066</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8711,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,25 +8771,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>831.6987709321243</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>185.6255543726317</v>
       </c>
       <c r="Q12" t="n">
-        <v>317.7453222730279</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8930,22 +8932,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425249</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>967.5075822902267</v>
       </c>
       <c r="O14" t="n">
-        <v>625.8684502597521</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9003,25 +9005,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>765.3314412469917</v>
+        <v>279.6168721116282</v>
       </c>
       <c r="O15" t="n">
-        <v>831.6987709321243</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>877.2336749314295</v>
+        <v>765.1769988726438</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9182,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9243,16 +9245,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>185.1977413813447</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9404,10 +9406,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M20" t="n">
-        <v>772.395863235019</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>1043.774157741933</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9714,7 +9716,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9723,19 +9725,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>208.3123223574469</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>126.0397288826768</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K29" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10133,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10358,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>882.1738474735962</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,22 +10436,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239236</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10595,7 +10597,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>632.4842746885297</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10604,10 +10606,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10664,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>299.9167405677024</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10677,16 +10679,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>281.4457336203087</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10835,13 +10837,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>859.128966425699</v>
       </c>
       <c r="P38" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10908,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11060,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>445.3576092114875</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425249</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093338</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443481</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11148,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>765.3314412469917</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>831.6987709321243</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,19 +11299,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425249</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093338</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>675.9633363134647</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
@@ -11382,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222301</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>318.1701737062714</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>481.4282914131703</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396359</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.421779564848663</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458133</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>60.83085829126884</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>79.31046371040884</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>251.7355749669123</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396359</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892187</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>173.3217829210983</v>
+        <v>179.4924275998984</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -23896,16 +23898,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>112.8510053776928</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>14.82801850550686</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>118.557719078891</v>
       </c>
       <c r="C22" t="n">
-        <v>152.5322067692366</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>4.658947683704582</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>40.80268611963534</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>92.08422050511675</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>40.36534422558816</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>118.1042793967421</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.44073542471756</v>
+        <v>41.47873147163443</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.9093584752787</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>51.44620069043543</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>72.90409729987641</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>40.63291346401758</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>222.4176268680163</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>301.1335551328823</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25925,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>163.7887810877128</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>180.9745186343829</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>541443.7276834892</v>
+        <v>539957.7039439903</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>396307.6167110451</v>
+        <v>534459.5896196705</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>396307.6167110451</v>
+        <v>534459.5896196706</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>534459.5896196705</v>
+        <v>534459.5896196706</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>534459.5896196708</v>
+        <v>534459.5896196705</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>534459.5896196708</v>
+        <v>534459.5896196706</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>534459.5896196706</v>
+        <v>534459.5896196708</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>534459.5896196708</v>
+        <v>534459.5896196706</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>396307.6167110453</v>
+        <v>534459.5896196706</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>396307.6167110453</v>
+        <v>534459.5896196708</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26319,22 @@
         <v>495076.2678094888</v>
       </c>
       <c r="D2" t="n">
-        <v>495076.2678094887</v>
+        <v>495076.2678094888</v>
       </c>
       <c r="E2" t="n">
-        <v>354248.135202334</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="F2" t="n">
-        <v>354248.135202334</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="G2" t="n">
-        <v>477725.8426668303</v>
+        <v>477725.8426668304</v>
       </c>
       <c r="H2" t="n">
+        <v>477725.8426668305</v>
+      </c>
+      <c r="I2" t="n">
         <v>477725.8426668302</v>
-      </c>
-      <c r="I2" t="n">
-        <v>477725.8426668303</v>
       </c>
       <c r="J2" t="n">
         <v>477725.8426668303</v>
@@ -26341,19 +26343,19 @@
         <v>477725.8426668303</v>
       </c>
       <c r="L2" t="n">
+        <v>477725.8426668305</v>
+      </c>
+      <c r="M2" t="n">
         <v>477725.8426668302</v>
       </c>
-      <c r="M2" t="n">
-        <v>477725.8426668304</v>
-      </c>
       <c r="N2" t="n">
+        <v>477725.8426668302</v>
+      </c>
+      <c r="O2" t="n">
+        <v>477725.8426668306</v>
+      </c>
+      <c r="P2" t="n">
         <v>477725.8426668305</v>
-      </c>
-      <c r="O2" t="n">
-        <v>354248.135202334</v>
-      </c>
-      <c r="P2" t="n">
-        <v>354248.1352023342</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695913</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361215</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346224</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701974</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537393</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>171848.3668116665</v>
+      </c>
+      <c r="C4" t="n">
         <v>156753.0758057354</v>
-      </c>
-      <c r="C4" t="n">
-        <v>156753.0758057353</v>
       </c>
       <c r="D4" t="n">
         <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>21799.09004189533</v>
+        <v>29432.28705591146</v>
       </c>
       <c r="F4" t="n">
-        <v>21799.09004189533</v>
+        <v>29432.28705591145</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.28705591137</v>
+        <v>29432.28705591147</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.28705591144</v>
+        <v>29432.28705591145</v>
       </c>
       <c r="I4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="J4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="K4" t="n">
         <v>29432.2870559115</v>
@@ -26454,10 +26456,10 @@
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>21799.09004189546</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="P4" t="n">
-        <v>21799.09004189546</v>
+        <v>29432.2870559115</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216126</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84472.20755158804</v>
+        <v>98061.98210606976</v>
       </c>
       <c r="C6" t="n">
+        <v>247470.1072927131</v>
+      </c>
+      <c r="D6" t="n">
         <v>270876.9409663253</v>
       </c>
-      <c r="D6" t="n">
-        <v>270876.9409663252</v>
-      </c>
       <c r="E6" t="n">
-        <v>207959.6596294144</v>
+        <v>154804.1368658488</v>
       </c>
       <c r="F6" t="n">
-        <v>283290.6107828767</v>
+        <v>370543.4934224893</v>
       </c>
       <c r="G6" t="n">
-        <v>241653.0936109488</v>
+        <v>370543.4934224893</v>
       </c>
       <c r="H6" t="n">
+        <v>370543.4934224894</v>
+      </c>
+      <c r="I6" t="n">
         <v>370543.493422489</v>
       </c>
-      <c r="I6" t="n">
-        <v>370543.4934224891</v>
-      </c>
       <c r="J6" t="n">
-        <v>225009.8234876725</v>
+        <v>243966.2248422003</v>
       </c>
       <c r="K6" t="n">
-        <v>370543.4934224891</v>
+        <v>351896.8930654695</v>
       </c>
       <c r="L6" t="n">
+        <v>370543.4934224893</v>
+      </c>
+      <c r="M6" t="n">
+        <v>190479.6219673213</v>
+      </c>
+      <c r="N6" t="n">
         <v>370543.493422489</v>
       </c>
-      <c r="M6" t="n">
-        <v>307669.5564571153</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>370543.4934224894</v>
+      </c>
+      <c r="P6" t="n">
         <v>370543.4934224893</v>
-      </c>
-      <c r="O6" t="n">
-        <v>283290.6107828765</v>
-      </c>
-      <c r="P6" t="n">
-        <v>283290.6107828767</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162592</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>355.8264470017524</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>261.0072389248296</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.4202595538157</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>2.284315397369689</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>82.23069669041814</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>206.2762395340002</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,7 +27788,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>84.31316893803191</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,10 +27833,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>232.7324384170693</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>120.7436121680617</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>206.2762395340006</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -28020,10 +28022,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>59.29601254814088</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>19.29091348988669</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.900341190940622e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28342,10 +28344,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.793817563067303e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28378,22 +28380,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28545,7 +28547,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-6.574282451765616e-12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28864,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.304553167391073</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>167.4878420635545</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>444.605878150503</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>483.7766911539682</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>10.81557123941205</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34854,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.0106377175979208</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.1371666366176</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34939,22 +34941,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35012,28 +35014,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>155.2981118204434</v>
+      </c>
+      <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>349.6900184701286</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35109,10 +35111,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,7 +35178,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,13 +35190,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>67.9041137177578</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35410,19 +35412,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099021</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>731.7769793778825</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35431,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="Q12" t="n">
-        <v>294.9982839840494</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>358.2720417115361</v>
+        <v>358.272041711534</v>
       </c>
       <c r="M13" t="n">
         <v>395.137166636617</v>
@@ -35650,22 +35652,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>930.2279594557806</v>
       </c>
       <c r="O14" t="n">
-        <v>588.477490903728</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>743.9884130334501</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="O15" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35820,7 +35822,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968675</v>
       </c>
       <c r="Q16" t="n">
         <v>128.2829598391535</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>839.8024120319977</v>
+        <v>727.745735973212</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35902,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>163.8547131678031</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36054,7 +36056,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>359.018311797735</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
         <v>293.5345574968697</v>
@@ -36124,10 +36126,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M20" t="n">
-        <v>734.9646003355872</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>185.2155418451189</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K29" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36853,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37078,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>844.8942246391501</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291143</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37315,7 +37317,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>595.2046518540836</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37324,10 +37326,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37555,13 +37557,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>821.7380070696748</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>409.5930084166782</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099021</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099021</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>743.9884130334501</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099021</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099021</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>638.6837134790186</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>294.9982839840492</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>459.6574502083416</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2366219.578207367</v>
+        <v>2365522.917002276</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114759</v>
+        <v>612367.9462114746</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>237.0440086286914</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -670,7 +670,7 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>65.04649299074131</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>94.71419267746225</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -837,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.28391178232889</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.4191839581966</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -949,7 +949,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -958,13 +958,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>151.6609811966686</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1065,16 +1065,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>77.34040729634083</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>46.1619143009821</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1138,10 +1138,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1150,10 +1150,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>109.5102798087749</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>49.49512077555119</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1293,7 +1293,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>110.8471439350443</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.3984173099137</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068499</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1545,7 +1545,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>161.6737988100402</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>160.8277938782441</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868328</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1776,13 +1776,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1824,16 +1824,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>60.64582998875448</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>164.7047943182447</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095526</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -2004,19 +2004,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>51.69511841098215</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2058,10 +2058,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>155.1469410361753</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396344</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250141</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.70658994605395</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>35.56826410134468</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>165.5938898061686</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.30362264056416</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>40.79871210679603</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2769,7 +2769,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486158</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3283,7 +3283,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>146.7855775533106</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>123.9086344760396</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3508,7 +3508,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>127.3780140126846</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3675,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5944000087072</v>
       </c>
       <c r="H40" t="n">
-        <v>1.44894733164843</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3808,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>123.9614865446926</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971708</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
-        <v>59.93143566197608</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.7534004685707</v>
+        <v>340.7117165732283</v>
       </c>
       <c r="C2" t="n">
-        <v>145.8930745222749</v>
+        <v>101.2733240189945</v>
       </c>
       <c r="D2" t="n">
-        <v>126.6408577476792</v>
+        <v>82.02110724439883</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7043219359408</v>
+        <v>60.08457143266044</v>
       </c>
       <c r="F2" t="n">
-        <v>39.00079366246477</v>
+        <v>39.00079366246474</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>401.305594109213</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516415</v>
+        <v>517.6410595347455</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516415</v>
+        <v>996.5799837771737</v>
       </c>
       <c r="M2" t="n">
-        <v>882.5260259873587</v>
+        <v>996.5799837771737</v>
       </c>
       <c r="N2" t="n">
-        <v>882.5260259873587</v>
+        <v>1475.518908019602</v>
       </c>
       <c r="O2" t="n">
-        <v>1361.464950229787</v>
+        <v>1475.518908019602</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229787</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.55042973397</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489013</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533646</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130059</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563082</v>
+        <v>1577.617349742121</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566551</v>
+        <v>1577.617349742121</v>
       </c>
       <c r="X2" t="n">
-        <v>185.8582267244023</v>
+        <v>1165.897350909868</v>
       </c>
       <c r="Y2" t="n">
-        <v>184.5613607196967</v>
+        <v>760.5600808647583</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565625</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294997</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124039</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000786</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>46.1487782542293</v>
+        <v>46.14877825422927</v>
       </c>
       <c r="J3" t="n">
         <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>317.8462675338204</v>
+        <v>796.7851917762484</v>
       </c>
       <c r="L3" t="n">
-        <v>796.7851917762489</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="M3" t="n">
-        <v>1275.724116018677</v>
+        <v>1754.663040261105</v>
       </c>
       <c r="N3" t="n">
-        <v>1275.724116018677</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="O3" t="n">
-        <v>1754.663040261106</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="P3" t="n">
-        <v>1754.663040261106</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="Q3" t="n">
         <v>1765.370455788124</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.6750519694078</v>
+        <v>945.8130281301526</v>
       </c>
       <c r="C4" t="n">
-        <v>783.7024888483238</v>
+        <v>850.1421264357463</v>
       </c>
       <c r="D4" t="n">
-        <v>620.3857159750945</v>
+        <v>686.825353562517</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>520.6171477153705</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>182.498403784163</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231746</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231746</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>38.7126666327394</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271602</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>784.587782897411</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773447</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.50742245321</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375111</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615873</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1890.375540593318</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1890.375540593318</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1647.036192819219</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U4" t="n">
-        <v>1647.036192819219</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="V4" t="n">
-        <v>1647.036192819219</v>
+        <v>1653.3952972239</v>
       </c>
       <c r="W4" t="n">
-        <v>1372.183788991731</v>
+        <v>1378.542893396413</v>
       </c>
       <c r="X4" t="n">
-        <v>1372.183788991731</v>
+        <v>1135.978996842218</v>
       </c>
       <c r="Y4" t="n">
-        <v>1145.841020681474</v>
+        <v>1135.978996842218</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.0105478030285</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
         <v>44.79688341939484</v>
@@ -4567,28 +4567,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.774063102812</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W5" t="n">
-        <v>1283.774063102812</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X5" t="n">
-        <v>1276.094468310963</v>
+        <v>955.1153740588602</v>
       </c>
       <c r="Y5" t="n">
-        <v>1274.797602306257</v>
+        <v>549.7781040137505</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>205.6899987133984</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
         <v>1307.021068682275</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>783.8450102269608</v>
+        <v>962.2361343535722</v>
       </c>
       <c r="C7" t="n">
-        <v>783.8450102269608</v>
+        <v>790.2635712324882</v>
       </c>
       <c r="D7" t="n">
-        <v>620.5282373537315</v>
+        <v>626.9467983592589</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>460.7385925121124</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>288.8768182866728</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>122.6198485809049</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>122.6198485809049</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4743,34 +4743,34 @@
         <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1717.770047630966</v>
+        <v>1896.161171757578</v>
       </c>
       <c r="W7" t="n">
-        <v>1442.917643803479</v>
+        <v>1621.308767930091</v>
       </c>
       <c r="X7" t="n">
-        <v>1200.353747249284</v>
+        <v>1378.744871375896</v>
       </c>
       <c r="Y7" t="n">
-        <v>974.0109789390265</v>
+        <v>1152.402103065638</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1342.050951843433</v>
+        <v>679.483459270441</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567327</v>
+        <v>252.5827292837411</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>233.3305125091455</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>211.3939766974071</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>190.3101989272114</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>190.0115405570641</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,7 +4807,7 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
         <v>957.7672188505812</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2174.916180971921</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>2174.916180971921</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W8" t="n">
-        <v>2174.916180971921</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X8" t="n">
-        <v>1763.196182139668</v>
+        <v>1100.628689566677</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>695.291419521567</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1696.494830002562</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1696.494830002562</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>738.2594066832694</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="C10" t="n">
-        <v>566.2868435621854</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="D10" t="n">
-        <v>566.2868435621854</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="E10" t="n">
-        <v>566.2868435621854</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>1811.949520830083</v>
       </c>
       <c r="U10" t="n">
-        <v>1727.553143168988</v>
+        <v>1531.765072330388</v>
       </c>
       <c r="V10" t="n">
-        <v>1445.841675777017</v>
+        <v>1250.053604938417</v>
       </c>
       <c r="W10" t="n">
-        <v>1170.98927194953</v>
+        <v>975.2012011109297</v>
       </c>
       <c r="X10" t="n">
-        <v>928.425375395335</v>
+        <v>732.6373045567348</v>
       </c>
       <c r="Y10" t="n">
-        <v>928.425375395335</v>
+        <v>506.2945362464768</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
@@ -5050,19 +5050,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2110.0395278175</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N11" t="n">
-        <v>3086.290586304201</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O11" t="n">
-        <v>3931.435236455013</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P11" t="n">
-        <v>4639.71451561294</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q11" t="n">
-        <v>5095.799995117123</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5086,7 +5086,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>1748.774177950213</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.774177950213</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1748.774177950213</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>878.3707945649905</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C13" t="n">
-        <v>706.3982314439065</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D13" t="n">
-        <v>706.3982314439065</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E13" t="n">
-        <v>540.1900255967601</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F13" t="n">
-        <v>368.3282513713204</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
         <v>202.0712816655526</v>
@@ -5205,46 +5205,46 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>741.0109641302424</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1132.196759100493</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1509.688269976529</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656292</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578193</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818955</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.677127506128</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025263</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251163</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751467</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.018283751467</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.16587992398</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X13" t="n">
-        <v>1104.713562875248</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3707945649905</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5284,13 +5284,13 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2184.700581617281</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O14" t="n">
         <v>3950.770911629316</v>
@@ -5305,22 +5305,22 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
         <v>2960.549862354846</v>
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.8532300916962</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>697.8532300916962</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D16" t="n">
-        <v>534.5364572184669</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E16" t="n">
-        <v>368.3282513713204</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>368.3282513713204</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
         <v>202.0712816655526</v>
@@ -5454,34 +5454,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578193</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818955</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.677127506128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025263</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251163</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.018283751467</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>1260.306816359496</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W16" t="n">
-        <v>985.4544125320092</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="X16" t="n">
-        <v>924.1959984019542</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="Y16" t="n">
-        <v>697.8532300916962</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>326.3817789554925</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C19" t="n">
-        <v>326.3817789554925</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D19" t="n">
-        <v>326.3817789554925</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5685,40 +5685,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563994</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.527263709272</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1712.527263709272</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5755,22 +5755,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.618246195026</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614084</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5840,19 +5840,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1112.773316863137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1112.773316863137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O21" t="n">
-        <v>1112.773316863137</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.1370507523521</v>
+        <v>648.2727960958064</v>
       </c>
       <c r="C22" t="n">
-        <v>274.1644876312681</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312681</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>310.0920271275759</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>138.2302529021363</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2036.213862444163</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.464920930865</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>3857.609571081677</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4565.888850239604</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6068,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>374.0002026854196</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M24" t="n">
-        <v>557.3635891120873</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N24" t="n">
-        <v>557.3635891120873</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O24" t="n">
-        <v>1446.844867123559</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>742.8905159778161</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>575.6239606180499</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>412.3071877448206</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.8905159778161</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6311,19 +6311,19 @@
         <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>1808.730580298577</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>1808.730580298577</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1808.730580298577</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.730580298577</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1808.730580298577</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>440.483482374059</v>
+        <v>653.604840768015</v>
       </c>
       <c r="C28" t="n">
-        <v>268.510919252975</v>
+        <v>481.632277646931</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>481.632277646931</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>366.6855125151251</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1082.193820490624</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.818868109901</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6554,13 +6554,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1112.773316863137</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>1112.773316863137</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
         <v>1828.971033901635</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3012.464920930865</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>3857.609571081677</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,22 +6776,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N33" t="n">
-        <v>648.6278400003578</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O33" t="n">
         <v>648.6278400003578</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6940,25 +6940,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2398.817321261059</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7016,19 +7016,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
         <v>648.6278400003578</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>368.279487512699</v>
+        <v>1067.07923602298</v>
       </c>
       <c r="C37" t="n">
-        <v>368.279487512699</v>
+        <v>895.1066729018962</v>
       </c>
       <c r="D37" t="n">
-        <v>368.279487512699</v>
+        <v>731.7899000286669</v>
       </c>
       <c r="E37" t="n">
-        <v>202.0712816655526</v>
+        <v>565.5816941815204</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655526</v>
+        <v>393.7199199560808</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>227.462950250313</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>1257.245204735046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,34 +7162,34 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7268,10 +7268,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>991.7839914173002</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>1707.981708455798</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>608.0932463474637</v>
+        <v>1185.483835930062</v>
       </c>
       <c r="C40" t="n">
-        <v>608.0932463474637</v>
+        <v>1013.511272808978</v>
       </c>
       <c r="D40" t="n">
-        <v>608.0932463474637</v>
+        <v>850.1944999357491</v>
       </c>
       <c r="E40" t="n">
-        <v>441.8850405003172</v>
+        <v>683.9862940886027</v>
       </c>
       <c r="F40" t="n">
-        <v>270.0232662748776</v>
+        <v>512.1245198631631</v>
       </c>
       <c r="G40" t="n">
-        <v>103.7662965691098</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7365,19 +7365,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V40" t="n">
-        <v>1542.018283751469</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W40" t="n">
-        <v>1267.165879923982</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="X40" t="n">
-        <v>1024.601983369787</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="Y40" t="n">
-        <v>798.2592150595294</v>
+        <v>1314.148496548936</v>
       </c>
     </row>
     <row r="41">
@@ -7417,10 +7417,10 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
         <v>2988.069926596602</v>
@@ -7456,7 +7456,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
         <v>1364.825557038856</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3666.855944130192</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>3494.883381009108</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>3331.566608135879</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>3331.566608135879</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>3159.704833910439</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R43" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S43" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338096</v>
       </c>
       <c r="T43" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>4374.43821322394</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>4099.585809396453</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>3857.021912842258</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>3857.021912842258</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,13 +7636,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
@@ -7654,16 +7654,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2720.098147267829</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
         <v>4541.493855905342</v>
@@ -7684,10 +7684,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399955</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O45" t="n">
-        <v>4195.92931772239</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
-        <v>4650.990193428648</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3341.604252503098</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>3341.604252503098</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>3178.287479629868</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>3178.287479629868</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>4837.42520579877</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>4557.240757299074</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>4275.529289907103</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>4000.676886079616</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>3758.112989525421</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>3531.770221215163</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487776</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865907</v>
       </c>
       <c r="M2" t="n">
-        <v>39.73581606682288</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884139</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099923</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>501.8055199882812</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,25 +8060,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873011</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681978</v>
+        <v>506.2917778681974</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662962</v>
+        <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>32.15859945295509</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761904</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.56260952839055</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>20.97529217030992</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8151,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>94.6403295087156</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
@@ -8239,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>177.6973456537768</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8391,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.915358154857</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8455,10 +8455,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>98.17301358442491</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8698,10 +8698,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>54.56363491934598</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
@@ -8777,7 +8777,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>185.6255543726317</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,16 +8932,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>967.5075822902267</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>882.2851839951743</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>279.6168721116282</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>765.1769988726438</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9184,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>867.7664080100944</v>
@@ -9254,7 +9254,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9263,7 +9263,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>126.0397288826768</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9403,13 +9403,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>660.9541399377149</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9421,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9488,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1043.774157741933</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P21" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9658,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>208.3123223574469</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9895,7 +9895,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9959,7 +9959,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9971,10 +9971,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q27" t="n">
-        <v>126.0397288826768</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>296.4732919192194</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10202,16 +10202,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P30" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
-        <v>472.1756697257304</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
@@ -10439,10 +10439,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
@@ -10588,16 +10588,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N35" t="n">
-        <v>632.4842746885297</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10609,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>299.9167405677024</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
@@ -10679,7 +10679,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P36" t="n">
         <v>745.2028786174529</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,16 +10831,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
-        <v>859.128966425699</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10916,13 +10916,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P39" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.806266097605</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11065,13 +11065,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>877.2336749314295</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11141,7 +11141,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>292.2790261091175</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11156,7 +11156,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11302,19 +11302,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11390,10 +11390,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P45" t="n">
-        <v>481.4282914131703</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080111</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>79.31046371040884</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>179.4924275998984</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>59.37454630891071</v>
       </c>
     </row>
     <row r="17">
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>112.8510053776928</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>122.2356629785235</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.557719078891</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>129.0261359073655</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>4.658947683704582</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.9606863843808</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>123.7474116818789</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9606863843808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.47873147163443</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>18.44967133088755</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>60.88629501226042</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.9093584752787</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>40.63291346401758</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>71.98949189918818</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
-        <v>180.9745186343829</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>534459.5896196705</v>
+        <v>534459.5896196708</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>534459.5896196706</v>
+        <v>534459.5896196708</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>534459.5896196705</v>
+        <v>534459.5896196706</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>534459.5896196708</v>
+        <v>534459.5896196706</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>534459.5896196706</v>
+        <v>534459.5896196708</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>534459.5896196706</v>
+        <v>534459.5896196708</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>534459.5896196708</v>
+        <v>534459.5896196706</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495076.2678094888</v>
+        <v>495076.2678094887</v>
       </c>
       <c r="C2" t="n">
-        <v>495076.2678094888</v>
+        <v>495076.2678094889</v>
       </c>
       <c r="D2" t="n">
         <v>495076.2678094888</v>
       </c>
       <c r="E2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="F2" t="n">
         <v>477725.8426668305</v>
       </c>
       <c r="G2" t="n">
-        <v>477725.8426668304</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="H2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="I2" t="n">
+        <v>477725.8426668303</v>
+      </c>
+      <c r="J2" t="n">
         <v>477725.8426668302</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>477725.8426668301</v>
+      </c>
+      <c r="L2" t="n">
         <v>477725.8426668303</v>
-      </c>
-      <c r="K2" t="n">
-        <v>477725.8426668303</v>
-      </c>
-      <c r="L2" t="n">
-        <v>477725.8426668305</v>
       </c>
       <c r="M2" t="n">
         <v>477725.8426668302</v>
       </c>
       <c r="N2" t="n">
-        <v>477725.8426668302</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="O2" t="n">
-        <v>477725.8426668306</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="P2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668303</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695913</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361215</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802889</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701974</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171848.3668116665</v>
+        <v>171848.3668116666</v>
       </c>
       <c r="C4" t="n">
         <v>156753.0758057354</v>
@@ -26426,22 +26426,22 @@
         <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>29432.28705591146</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="F4" t="n">
-        <v>29432.28705591145</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.28705591147</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.28705591145</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="I4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="J4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
         <v>29432.2870559115</v>
@@ -26450,16 +26450,16 @@
         <v>29432.2870559115</v>
       </c>
       <c r="M4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591145</v>
       </c>
       <c r="N4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="O4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="P4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216126</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98061.98210606976</v>
+        <v>98061.98210606968</v>
       </c>
       <c r="C6" t="n">
-        <v>247470.1072927131</v>
+        <v>247470.107292713</v>
       </c>
       <c r="D6" t="n">
         <v>270876.9409663253</v>
       </c>
       <c r="E6" t="n">
-        <v>154804.1368658488</v>
+        <v>154753.1062036643</v>
       </c>
       <c r="F6" t="n">
-        <v>370543.4934224893</v>
+        <v>370492.462760305</v>
       </c>
       <c r="G6" t="n">
-        <v>370543.4934224893</v>
+        <v>370492.462760305</v>
       </c>
       <c r="H6" t="n">
-        <v>370543.4934224894</v>
+        <v>370492.4627603049</v>
       </c>
       <c r="I6" t="n">
-        <v>370543.493422489</v>
+        <v>370492.4627603048</v>
       </c>
       <c r="J6" t="n">
-        <v>243966.2248422003</v>
+        <v>243915.1941800159</v>
       </c>
       <c r="K6" t="n">
-        <v>351896.8930654695</v>
+        <v>351845.8624032848</v>
       </c>
       <c r="L6" t="n">
-        <v>370543.4934224893</v>
+        <v>370492.4627603048</v>
       </c>
       <c r="M6" t="n">
-        <v>190479.6219673213</v>
+        <v>190428.5913051371</v>
       </c>
       <c r="N6" t="n">
-        <v>370543.493422489</v>
+        <v>370492.4627603049</v>
       </c>
       <c r="O6" t="n">
-        <v>370543.4934224894</v>
+        <v>370492.462760305</v>
       </c>
       <c r="P6" t="n">
-        <v>370543.4934224893</v>
+        <v>370492.4627603049</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162592</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>185.5877140581414</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>355.8264470017524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>75.53864481241089</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.284315397369689</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.23069669041814</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>255.9418176472616</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>21.43047528078596</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>232.7324384170693</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>185.3794149319306</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>206.2762395340006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -28022,13 +28022,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>59.29601254814088</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0.5075369864452739</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28292,7 +28292,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.429616271214126e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.757261086117069e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30395,7 +30395,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30662,7 +30662,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M2" t="n">
-        <v>2.304553167391073</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>464.2301581780499</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539682</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>10.81557123941343</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539682</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.81557123941205</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0106377175979208</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34871,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>72.14114201029115</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>48.74406945557187</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>155.2981118204434</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35111,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968705</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35175,10 +35175,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>75.42597529544641</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35418,10 +35418,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>19.53098502454951</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
@@ -35497,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>163.8547131678031</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,7 +35573,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>358.272041711534</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
         <v>395.137166636617</v>
@@ -35588,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391563</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,16 +35652,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>930.2279594557806</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35822,7 +35822,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968675</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
         <v>128.2829598391535</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>727.745735973212</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35904,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>845.2513212958648</v>
@@ -35974,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36053,7 +36053,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>381.3045564404402</v>
+        <v>381.304556440443</v>
       </c>
       <c r="O19" t="n">
         <v>359.0183117977405</v>
@@ -36123,13 +36123,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>623.5228770382831</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36141,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P21" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36378,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>185.2155418451189</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36615,7 +36615,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36679,7 +36679,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.2926905936983</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>267.0533324336329</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P30" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
-        <v>436.0509951211323</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
@@ -37308,16 +37308,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N35" t="n">
-        <v>595.2046518540836</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37329,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P36" t="n">
         <v>723.4320374126243</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,16 +37551,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
-        <v>821.7380070696748</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37636,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P39" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>205.0592278086265</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,13 +37785,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>839.8024120319977</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37861,7 +37861,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>269.8797922757842</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -37958,7 +37958,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391576</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P45" t="n">
-        <v>459.6574502083416</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
